--- a/biology/Botanique/Nonea_pulla/Nonea_pulla.xlsx
+++ b/biology/Botanique/Nonea_pulla/Nonea_pulla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nonea pulla, la nonée brune, est une espèce de plantes à fleurs du genre Nonea, de la famille des Boraginaceae que l'on trouve en Europe centrale et en Europe de l'Est et qui pousse dans les prairies sèches ou les steppes. Elle a été dénommée ainsi par Augustin Pyrame de Candolle.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nonée brune est une plante herbacée vivace qui peut former des buissons de 20 à 50 cm de hauteur. Elle est hémicryptophyte et sa période de végétation démarre d'avril-mai à août. Ses feuilles sont longues et lancéolées recouvertes de poils gris.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve la nonée brune dans des prairies sèches, des collines ou des steppes d'Europe de l'Est, parfois en tant que plante rudérale.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchusa licopsipula Tardent
 Anchusa pulla (L.) M.Bieb.
